--- a/Zoosell test-case 1.xlsx
+++ b/Zoosell test-case 1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25809"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_7B801DAB4EC8507FFC330E251C71BA85B1D3E8C4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DF45AAF-DCBC-4807-B187-989A120CECB6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40E9DBB6-3889-4EA9-934E-C7395C797D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -691,10 +691,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -702,6 +698,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -929,23 +929,23 @@
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="77.28515625" customWidth="1"/>
+    <col min="2" max="2" width="89.28515625" customWidth="1"/>
     <col min="3" max="3" width="118.5703125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
     </row>
@@ -975,7 +975,7 @@
       <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -990,7 +990,7 @@
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="1"/>
@@ -1002,7 +1002,7 @@
       <c r="B7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="1"/>
@@ -1213,7 +1213,7 @@
       <c r="C24" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="17" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1282,7 +1282,7 @@
       <c r="B30" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="16" t="s">
         <v>58</v>
       </c>
       <c r="D30" s="1"/>

--- a/Zoosell test-case 1.xlsx
+++ b/Zoosell test-case 1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25809"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40E9DBB6-3889-4EA9-934E-C7395C797D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A152C43-0B5B-4179-BE42-EB7BE61687AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -699,9 +699,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -923,7 +925,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
